--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/zh_CN.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/zh_CN.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5173">
   <si>
     <t>translation_group</t>
   </si>
@@ -15493,12 +15493,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 通知</t>
-  </si>
-  <si>
-    <t>2021-02-24T11:44:54.000000Z</t>
-  </si>
-  <si>
-    <t>2021-02-24T11：44：54.000000Z</t>
   </si>
   <si>
     <t>1 day ago</t>
@@ -15882,17 +15876,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2772"/>
+  <dimension ref="A1:D2773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2772" sqref="D2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="0"/>
-    <col min="2" max="2" width="9.10" style="0"/>
-    <col min="3" max="3" width="9.10" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.10" style="0"/>
   </cols>
   <sheetData>
@@ -54539,18 +54533,10 @@
       </c>
     </row>
     <row r="2762" spans="1:4">
-      <c r="A2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2762" t="s">
-        <v>5158</v>
-      </c>
-      <c r="D2762" t="s">
-        <v>5159</v>
-      </c>
+      <c r="A2762"/>
+      <c r="B2762"/>
+      <c r="C2762"/>
+      <c r="D2762"/>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
@@ -54560,10 +54546,10 @@
         <v>4</v>
       </c>
       <c r="C2763" t="s">
-        <v>5160</v>
+        <v>5158</v>
       </c>
       <c r="D2763" t="s">
-        <v>5161</v>
+        <v>5159</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
@@ -54574,10 +54560,10 @@
         <v>4</v>
       </c>
       <c r="C2764" t="s">
-        <v>5162</v>
+        <v>5160</v>
       </c>
       <c r="D2764" t="s">
-        <v>5163</v>
+        <v>5161</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
@@ -54588,10 +54574,10 @@
         <v>4</v>
       </c>
       <c r="C2765" t="s">
-        <v>5164</v>
+        <v>5162</v>
       </c>
       <c r="D2765" t="s">
-        <v>5165</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -54602,10 +54588,10 @@
         <v>4</v>
       </c>
       <c r="C2766" t="s">
-        <v>5166</v>
+        <v>5164</v>
       </c>
       <c r="D2766" t="s">
-        <v>5167</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -54616,10 +54602,10 @@
         <v>4</v>
       </c>
       <c r="C2767" t="s">
-        <v>5168</v>
+        <v>5166</v>
       </c>
       <c r="D2767" t="s">
-        <v>5169</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -54630,10 +54616,10 @@
         <v>4</v>
       </c>
       <c r="C2768" t="s">
-        <v>5170</v>
+        <v>5168</v>
       </c>
       <c r="D2768" t="s">
-        <v>5171</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -54644,10 +54630,10 @@
         <v>4</v>
       </c>
       <c r="C2769" t="s">
-        <v>5172</v>
+        <v>5170</v>
       </c>
       <c r="D2769" t="s">
-        <v>5173</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="2770" spans="1:4">
@@ -54686,11 +54672,17 @@
         <v>4</v>
       </c>
       <c r="C2772" t="s">
-        <v>5174</v>
+        <v>5172</v>
       </c>
       <c r="D2772" t="s">
         <v>5155</v>
       </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+      <c r="B2773"/>
+      <c r="C2773"/>
+      <c r="D2773"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/zh_CN.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/zh_CN.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5856">
   <si>
     <t>translation_group</t>
   </si>
@@ -10145,7 +10145,7 @@
     <t>Seo设置</t>
   </si>
   <si>
-    <t>Fill in the fields for maximum results when finding your website in _x0003_search engines.</t>
+    <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
     <t>在搜索引擎中查找网站时，请填写字段以获取最佳结果。</t>
@@ -16996,6 +16996,607 @@
   </si>
   <si>
     <t>邮件提供者</t>
+  </si>
+  <si>
+    <t>Welcome to Microweber</t>
+  </si>
+  <si>
+    <t>欢迎来到Microweber</t>
+  </si>
+  <si>
+    <t>Use Microweber to build your website, online shop or blog.</t>
+  </si>
+  <si>
+    <t>使用Microweber建立您的网站，在线商店或博客。</t>
+  </si>
+  <si>
+    <t>Create and edit content, sell online, manage orders and clients.</t>
+  </si>
+  <si>
+    <t>创建和编辑内容，在线销售，管理订单和客户。</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>去掉</t>
+  </si>
+  <si>
+    <t>Abandoned cart's</t>
+  </si>
+  <si>
+    <t>被遗弃的购物车</t>
+  </si>
+  <si>
+    <t>You are using this template.</t>
+  </si>
+  <si>
+    <t>您正在使用此模板。</t>
+  </si>
+  <si>
+    <t>The change will affect only the current page.</t>
+  </si>
+  <si>
+    <t>所做的更改将仅影响当前页面。</t>
+  </si>
+  <si>
+    <t>Allow multiple templates</t>
+  </si>
+  <si>
+    <t>允许多个模板</t>
+  </si>
+  <si>
+    <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
+  </si>
+  <si>
+    <t>如果允许多个模板，则在创建新页面时将无法使用其他模板。</t>
+  </si>
+  <si>
+    <t>System e-mail website settings</t>
+  </si>
+  <si>
+    <t>系统电子邮件网站设置</t>
+  </si>
+  <si>
+    <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
+  </si>
+  <si>
+    <t>传递与新注册，密码重置和其他系统功能有关的消息。</t>
+  </si>
+  <si>
+    <t>From e-mail address</t>
+  </si>
+  <si>
+    <t>从电子邮件地址</t>
+  </si>
+  <si>
+    <t>Ex. Your Website Name</t>
+  </si>
+  <si>
+    <t>前任。您的网站名称</t>
+  </si>
+  <si>
+    <t>General e-mail provider settings</t>
+  </si>
+  <si>
+    <t>常规电子邮件提供商设置</t>
+  </si>
+  <si>
+    <t>Set up your email provider.</t>
+  </si>
+  <si>
+    <t>设置您的电子邮件提供商。</t>
+  </si>
+  <si>
+    <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
+  </si>
+  <si>
+    <t>普通电子邮件提供商将传递与该网站有关的所有消息。包括系统消息和联系表单消息。</t>
+  </si>
+  <si>
+    <t>Website Logo</t>
+  </si>
+  <si>
+    <t>网站徽标</t>
+  </si>
+  <si>
+    <t>Select an logo for your website.</t>
+  </si>
+  <si>
+    <t>为您的网站选择徽标。</t>
+  </si>
+  <si>
+    <t>Upload logo</t>
+  </si>
+  <si>
+    <t>上载徽标</t>
+  </si>
+  <si>
+    <t>Website Favicon</t>
+  </si>
+  <si>
+    <t>网站图标</t>
+  </si>
+  <si>
+    <t>Changing default language..</t>
+  </si>
+  <si>
+    <t>更改默认语言</t>
+  </si>
+  <si>
+    <t>Clear cache..</t>
+  </si>
+  <si>
+    <t>清除缓存..</t>
+  </si>
+  <si>
+    <t>Install Multilanguage Module</t>
+  </si>
+  <si>
+    <t>安装多语言模块</t>
+  </si>
+  <si>
+    <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
+    <t>用户可以使用诸如Mailinator，MailDrop，Guerrilla ... s之类的临时电子邮件进行注册</t>
+  </si>
+  <si>
+    <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
+  </si>
+  <si>
+    <t>注册用户可以自动收到您的自动电子邮件。查看设置并发布您的消息。</t>
+  </si>
+  <si>
+    <t>Send email on new user registration to admin users</t>
+  </si>
+  <si>
+    <t>将有关新用户注册的电子邮件发送给管理员用户</t>
+  </si>
+  <si>
+    <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
+  </si>
+  <si>
+    <t>您是否希望管理员在注册新用户时收到电子邮件？</t>
+  </si>
+  <si>
+    <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>Microweber是免费的开放源代码拖放网站构建器和CMS。它已获得MIT许可，我们使用Laravel PHP框架</t>
+  </si>
+  <si>
+    <t>A Slider</t>
+  </si>
+  <si>
+    <t>滑块</t>
+  </si>
+  <si>
+    <t>Shipping to address</t>
+  </si>
+  <si>
+    <t>运送到地址</t>
+  </si>
+  <si>
+    <t>Pickup from address</t>
+  </si>
+  <si>
+    <t>从地址取件</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>全局设置</t>
+  </si>
+  <si>
+    <t>E-mail Integrations</t>
+  </si>
+  <si>
+    <t>电子邮件整合</t>
+  </si>
+  <si>
+    <t>You don't have system e-mail and smtp setup.</t>
+  </si>
+  <si>
+    <t>您没有系统电子邮件和smtp设置。</t>
+  </si>
+  <si>
+    <t>Setup your system settings here.</t>
+  </si>
+  <si>
+    <t>在此处设置系统设置。</t>
+  </si>
+  <si>
+    <t>Global contact form settings</t>
+  </si>
+  <si>
+    <t>全局联系表单设置</t>
+  </si>
+  <si>
+    <t>E-mail sending options</t>
+  </si>
+  <si>
+    <t>电子邮件发送选项</t>
+  </si>
+  <si>
+    <t>Global sender</t>
+  </si>
+  <si>
+    <t>全球发件人</t>
+  </si>
+  <si>
+    <t>Use custom sender settings</t>
+  </si>
+  <si>
+    <t>使用自定义发件人设置</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the global contact forms.</t>
+  </si>
+  <si>
+    <t>将自定义发件人设置用于全局联系表单。</t>
+  </si>
+  <si>
+    <t>By default we will use website system e-mail settings.</t>
+  </si>
+  <si>
+    <t>默认情况下，我们将使用网站系统的电子邮件设置。</t>
+  </si>
+  <si>
+    <t>You can change the system e-mail settings here.</t>
+  </si>
+  <si>
+    <t>您可以在此处更改系统电子邮件设置。</t>
+  </si>
+  <si>
+    <t>Global Receivers</t>
+  </si>
+  <si>
+    <t>全球接收者</t>
+  </si>
+  <si>
+    <t>Send contact forms data to global receivers when is submited</t>
+  </si>
+  <si>
+    <t>提交后将联系表单数据发送给全球接收者</t>
+  </si>
+  <si>
+    <t>To e-mail addresses</t>
+  </si>
+  <si>
+    <t>到电子邮件地址</t>
+  </si>
+  <si>
+    <t>E-mail address of the receivers seperated with coma.</t>
+  </si>
+  <si>
+    <t>收件人的电子邮件地址以逗号分隔。</t>
+  </si>
+  <si>
+    <t>Contact your hosting provider to enable PHP SOAP extension.</t>
+  </si>
+  <si>
+    <t>请与您的托管服务提供商联系以启用PHP SOAP扩展。</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>元素</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>2个月前</t>
+  </si>
+  <si>
+    <t>Remove logo</t>
+  </si>
+  <si>
+    <t>Remove favicon</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>风俗</t>
+  </si>
+  <si>
+    <t>bxSlider</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
+    <t>ProductsV2</t>
+  </si>
+  <si>
+    <t>产品V2</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>时间线</t>
+  </si>
+  <si>
+    <t>White label WHMCS</t>
+  </si>
+  <si>
+    <t>白标WHMCS</t>
+  </si>
+  <si>
+    <t>Number of the visible testimonials</t>
+  </si>
+  <si>
+    <t>可见推荐数</t>
+  </si>
+  <si>
+    <t>Module template has changed</t>
+  </si>
+  <si>
+    <t>Content versions</t>
+  </si>
+  <si>
+    <t>内容版本</t>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+  </si>
+  <si>
+    <t>Default layouts and elements</t>
+  </si>
+  <si>
+    <t>默认布局和元素</t>
+  </si>
+  <si>
+    <t>Arrows List</t>
+  </si>
+  <si>
+    <t>箭头清单</t>
+  </si>
+  <si>
+    <t>Checked List</t>
+  </si>
+  <si>
+    <t>检查清单</t>
+  </si>
+  <si>
+    <t>Background Text</t>
+  </si>
+  <si>
+    <t>背景文字</t>
+  </si>
+  <si>
+    <t>Title with Text</t>
+  </si>
+  <si>
+    <t>文字标题</t>
+  </si>
+  <si>
+    <t>Icon with Text</t>
+  </si>
+  <si>
+    <t>带文字的图标</t>
+  </si>
+  <si>
+    <t>Two Text Columns</t>
+  </si>
+  <si>
+    <t>两个文字栏</t>
+  </si>
+  <si>
+    <t>Two text columns with icon and title</t>
+  </si>
+  <si>
+    <t>两个带有图标和标题的文本列</t>
+  </si>
+  <si>
+    <t>Image with Title and Text</t>
+  </si>
+  <si>
+    <t>带有标题和文字的图像</t>
+  </si>
+  <si>
+    <t>Text with Image and Title</t>
+  </si>
+  <si>
+    <t>带有图像和标题的文字</t>
+  </si>
+  <si>
+    <t>Text with Image</t>
+  </si>
+  <si>
+    <t>带有图像的文字</t>
+  </si>
+  <si>
+    <t>Enable comments</t>
+  </si>
+  <si>
+    <t>启用评论</t>
+  </si>
+  <si>
+    <t>Captcha settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup your captcha preferences from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">从设置您的验证码首选项 </t>
+  </si>
+  <si>
+    <t>Add / Edit fields of the form using the custom fields</t>
+  </si>
+  <si>
+    <t>Current contact form settings</t>
+  </si>
+  <si>
+    <t>当前联系表格设置</t>
+  </si>
+  <si>
+    <t>Contact form name</t>
+  </si>
+  <si>
+    <t>联络表格名称</t>
+  </si>
+  <si>
+    <t>What is the name of this contact form?</t>
+  </si>
+  <si>
+    <t>该联系表的名称是什么？</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>接收者</t>
+  </si>
+  <si>
+    <t>Send contact form data to custom receivers when is submited</t>
+  </si>
+  <si>
+    <t>提交后将联系表单数据发送给自定义接收者</t>
+  </si>
+  <si>
+    <t>Use custom receivers settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>使用自定义的收件人设置为当前联系人表格。</t>
+  </si>
+  <si>
+    <t>By default we will use contact form global settings.</t>
+  </si>
+  <si>
+    <t>默认情况下，我们将使用联系表单的全局设置。</t>
+  </si>
+  <si>
+    <t>You can change the contact form global settings here.</t>
+  </si>
+  <si>
+    <t>您可以在此处更改联系表单的全局设置。</t>
+  </si>
+  <si>
+    <t>Auto respond message to user</t>
+  </si>
+  <si>
+    <t>自动回覆使用者讯息</t>
+  </si>
+  <si>
+    <t>Enable auto respond message to user</t>
+  </si>
+  <si>
+    <t>启用对用户的自动回复消息</t>
+  </si>
+  <si>
+    <t>Allow users to receive "Thank you emails after subscription."</t>
+  </si>
+  <si>
+    <t>允许用户接收“订阅后谢谢您的电子邮件”。</t>
+  </si>
+  <si>
+    <t>Auto respond subject</t>
+  </si>
+  <si>
+    <t>Auto responders allows you to set up automated replies to incoming email</t>
+  </si>
+  <si>
+    <t>自动回复器使您可以设置对传入电子邮件的自动回复</t>
+  </si>
+  <si>
+    <t>Auto respond message</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail sent back to the user</t>
+  </si>
+  <si>
+    <t>自动回复发送给用户的电子邮件</t>
+  </si>
+  <si>
+    <t>Auto respond custom sender</t>
+  </si>
+  <si>
+    <t>自动回复自定义发件人</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>对当前联系表使用自定义发件人设置。</t>
+  </si>
+  <si>
+    <t>Auto respond from e-mail address</t>
+  </si>
+  <si>
+    <t>通过电子邮件地址自动回复</t>
+  </si>
+  <si>
+    <t>Auto respond from name</t>
+  </si>
+  <si>
+    <t>自动回复姓名</t>
+  </si>
+  <si>
+    <t>Auto respond reply to e-mail</t>
+  </si>
+  <si>
+    <t>自动回复电子邮件</t>
+  </si>
+  <si>
+    <t>When the user receive the auto respond message they can response back to reply to email.</t>
+  </si>
+  <si>
+    <t>当用户收到自动回复消息时，他们可以回复以回复电子邮件。</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail attachments</t>
+  </si>
+  <si>
+    <t>自动回复电子邮件附件</t>
+  </si>
+  <si>
+    <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
+  </si>
+  <si>
+    <t>如果您要附加图片，则必须从“添加媒体”将其上传到图库</t>
+  </si>
+  <si>
+    <t>You don’t have any posts yet</t>
+  </si>
+  <si>
+    <t>您还没有任何帖子</t>
+  </si>
+  <si>
+    <t>Create your first post right now.</t>
+  </si>
+  <si>
+    <t>立即创建您的第一篇文章。</t>
+  </si>
+  <si>
+    <t>Create a Post</t>
+  </si>
+  <si>
+    <t>建立讯息</t>
+  </si>
+  <si>
+    <t>templates-new-world</t>
+  </si>
+  <si>
+    <t>How to write product descriptions that sell
+                                                    One of the best things you can do to make your store successful is invest some time in writing great product descriptions. You want to provide detailed yet concise information that will entice potential customers to buy.
+                                                    Think like a consumer
+                                                    Think about what you as a consumer would want to know, then include those features in your description. For clothes: materials and fit. For food: ingredients and how it was prepared. Bullets are your friends when listing
+                                                   features — try to
+                                                            limit each one to 5-8 words.</t>
+  </si>
+  <si>
+    <t>如何编写出售
+                                                    的产品说明，要使商店取得成功，最好的办法之一就是花一些时间编写出色的产品说明。您想提供详细而简洁的信息，以吸引潜在的客户购买。
+                                                    像消费者一样思考
+                                                    想一想您作为消费者想要了解的内容，然后在您的描述中包括这些功能。适用于衣服：材料和合身。对于食品：配料及其制备方法。在列出
+                                                   功能时，项目符号是您的朋友-尝试
+                                                            将每个单词限制为5到8个字。</t>
   </si>
 </sst>
 </file>
@@ -17334,7 +17935,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2959"/>
+  <dimension ref="A1:E3062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -67642,6 +68243,1757 @@
         <v>5658</v>
       </c>
       <c r="E2959" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:5">
+      <c r="A2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>5659</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>5660</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5">
+      <c r="A2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>5661</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>5662</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5">
+      <c r="A2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>5663</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>5664</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5">
+      <c r="A2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>5665</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>5666</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5">
+      <c r="A2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>5667</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>5668</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5">
+      <c r="A2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>5669</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>5670</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5">
+      <c r="A2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>5671</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>5672</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5">
+      <c r="A2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>5673</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>5674</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5">
+      <c r="A2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>5675</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>5676</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5">
+      <c r="A2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>5677</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>5678</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5">
+      <c r="A2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>5679</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>5680</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5">
+      <c r="A2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>5681</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>5682</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5">
+      <c r="A2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>5683</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>5684</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:5">
+      <c r="A2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>5685</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>5686</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:5">
+      <c r="A2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>5687</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>5688</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:5">
+      <c r="A2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>5689</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>5690</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:5">
+      <c r="A2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>5691</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>5692</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5">
+      <c r="A2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>5693</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>5694</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5">
+      <c r="A2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>5695</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>5696</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5">
+      <c r="A2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>5697</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>5698</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5">
+      <c r="A2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>5699</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>5700</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5">
+      <c r="A2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>5701</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>5702</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5">
+      <c r="A2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>5703</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>5704</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5">
+      <c r="A2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>5705</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>5706</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5">
+      <c r="A2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>5707</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>5708</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5">
+      <c r="A2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>5709</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>5710</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5">
+      <c r="A2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>5711</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>5712</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5">
+      <c r="A2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>5713</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>5714</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5">
+      <c r="A2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>5715</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>5716</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5">
+      <c r="A2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>5717</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>5718</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5">
+      <c r="A2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>5719</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>5720</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5">
+      <c r="A2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>5721</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>5722</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5">
+      <c r="A2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>5723</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>5724</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5">
+      <c r="A2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>5725</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>5726</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5">
+      <c r="A2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>5727</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>5728</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5">
+      <c r="A2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>5729</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>5730</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5">
+      <c r="A2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>5731</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>5732</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5">
+      <c r="A2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>5733</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>5734</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5">
+      <c r="A2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>5735</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>5736</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5">
+      <c r="A2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>5737</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>5738</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5">
+      <c r="A3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>5739</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>5740</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5">
+      <c r="A3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>5741</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>5742</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:5">
+      <c r="A3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>5743</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>5744</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:5">
+      <c r="A3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>5745</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>5746</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:5">
+      <c r="A3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>5747</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>5748</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:5">
+      <c r="A3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>5749</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>5750</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:5">
+      <c r="A3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>5751</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>5752</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:5">
+      <c r="A3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>5753</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>5754</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:5">
+      <c r="A3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>5755</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>5756</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:5">
+      <c r="A3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>5757</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>3219</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:5">
+      <c r="A3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>5758</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>3061</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:5">
+      <c r="A3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>5759</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>5760</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:5">
+      <c r="A3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>5761</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>5761</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:5">
+      <c r="A3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>5762</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>5762</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:5">
+      <c r="A3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3014" t="s">
+        <v>5763</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>5764</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:5">
+      <c r="A3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>5765</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>5766</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:5">
+      <c r="A3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>5767</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>5768</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:5">
+      <c r="A3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>5769</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>5770</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:5">
+      <c r="A3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>5771</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>2893</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:5">
+      <c r="A3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>5772</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>5773</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:5">
+      <c r="A3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>5774</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:5">
+      <c r="A3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>5775</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>5776</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:5">
+      <c r="A3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>5777</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>5778</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:5">
+      <c r="A3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>5779</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>5780</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:5">
+      <c r="A3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>5781</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>5782</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:5">
+      <c r="A3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>5783</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>5784</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:5">
+      <c r="A3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>5785</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>5786</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:5">
+      <c r="A3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>5787</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>5788</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:5">
+      <c r="A3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>5789</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>5790</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:5">
+      <c r="A3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>5791</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>5792</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:5">
+      <c r="A3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>5793</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>5794</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:5">
+      <c r="A3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>5795</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>5796</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:5">
+      <c r="A3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>5797</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>5798</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:5">
+      <c r="A3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>5799</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>4871</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:5">
+      <c r="A3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>5800</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>5801</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:5">
+      <c r="A3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>5802</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>4881</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:5">
+      <c r="A3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>5803</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>5804</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:5">
+      <c r="A3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>5805</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>5806</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:5">
+      <c r="A3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>5807</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>5808</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:5">
+      <c r="A3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>5809</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>5810</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:5">
+      <c r="A3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>5811</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>5812</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:5">
+      <c r="A3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>5813</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>5814</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:5">
+      <c r="A3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>5815</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>5816</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:5">
+      <c r="A3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>5817</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>5818</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:5">
+      <c r="A3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>5819</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>5820</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:5">
+      <c r="A3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>5821</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>5822</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:5">
+      <c r="A3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>5823</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>5824</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:5">
+      <c r="A3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>5825</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:5">
+      <c r="A3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>5826</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>5827</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:5">
+      <c r="A3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>5828</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>823</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:5">
+      <c r="A3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>5829</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>5830</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:5">
+      <c r="A3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>5831</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>5832</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:5">
+      <c r="A3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>5833</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>5834</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:5">
+      <c r="A3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>5835</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>5836</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5">
+      <c r="A3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>5837</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>5838</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5">
+      <c r="A3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>5839</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>5840</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5">
+      <c r="A3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>5841</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>5842</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5">
+      <c r="A3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>5844</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5">
+      <c r="A3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>5845</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>5846</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5">
+      <c r="A3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>5847</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>5848</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5">
+      <c r="A3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>5849</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>5850</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5">
+      <c r="A3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>5851</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>5852</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5">
+      <c r="A3062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>5853</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>5854</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>5855</v>
+      </c>
+      <c r="E3062" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/zh_CN.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/zh_CN.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5948">
   <si>
     <t>translation_group</t>
   </si>
@@ -16962,7 +16962,7 @@
     <t>Welcome to Microweber</t>
   </si>
   <si>
-    <t>欢迎来到Microweber</t>
+    <t>欢迎使用 Microweber</t>
   </si>
   <si>
     <t>Use Microweber to build your website, online shop or blog.</t>
@@ -16980,9 +16980,6 @@
     <t>Remove</t>
   </si>
   <si>
-    <t>去掉</t>
-  </si>
-  <si>
     <t>Abandoned cart's</t>
   </si>
   <si>
@@ -17004,13 +17001,13 @@
     <t>Allow multiple templates</t>
   </si>
   <si>
-    <t>允许多个模板</t>
+    <t>允许多模板</t>
   </si>
   <si>
     <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
   </si>
   <si>
-    <t>如果允许多个模板，则在创建新页面时将无法使用其他模板。</t>
+    <t>如果您允许多模板，您将能够在创建新页面时使用不同的模板。</t>
   </si>
   <si>
     <t>System e-mail website settings</t>
@@ -17124,7 +17121,7 @@
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
   </si>
   <si>
-    <t>Microweber是免费的开放源代码拖放网站构建器和CMS。它已获得MIT许可，我们使用Laravel PHP框架</t>
+    <t>Microweber 是免费开源的拖放式建站程序和 CMS。它遵循 MIT 许可，并使用 Laravel PHP 框架</t>
   </si>
   <si>
     <t>A Slider</t>
@@ -17563,340 +17560,274 @@
     <t>管理语言</t>
   </si>
   <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>添加子页面</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>类别已删除</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>内容已删除</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>搜索类别</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>创建内容</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>卡片</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>任何</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>编号说明</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
+    <t>编号升序</t>
+  </si>
+  <si>
     <t>Limit</t>
   </si>
   <si>
     <t>限制</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>您确定要删除吗？</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>回到</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>自定义字段已保存</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>现有领域</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>从下面的现有字段中选择</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 添加新字段</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>从下面的列表中添加新的自定义字段</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>您的字段</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>已添加的字段列表</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>库存</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>系统</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>博客</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>浏览器重定向</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>集成</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>导入导出工具</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>独立更新程序</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>预览包</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>演示</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>利用</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>当前</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>表达</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>头等舱</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>点击取货</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>视频背景</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>您可以激活多语言模块以使用多种语言</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>多语言模式</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>激活多语言模式，为您的内容提供多种语言。</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>导入翻译</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">在数据库中找不到翻译。您要导入翻译吗？ </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>您的购物车是空的.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>代码编辑器</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>博客</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>标题 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>标题 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>标题 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>标题 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>标题 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>标题 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>标题 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>标题 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>文本块</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>文本块 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>文本块 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>文本块 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>文本块 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>文本块 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>文本块 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>文本块 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>文本块 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>文本块 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>文本块 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>文本块 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>文本块 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>文本块 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>文本块 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>文本块 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>特点1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>特点 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>特点 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>特点 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>菜单-外观-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>菜单-外观-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>菜单-外观-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>菜单-外观-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>菜单-外观-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>页脚</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>页脚 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>页脚 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>页脚 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>页脚 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>大屏幕</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>超大屏幕 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>价格 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
     <t>默认布局</t>
   </si>
   <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>这里没有内容</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>自定义字段已保存</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>现有字段</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>从下面的现有字段中选择</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 添加新字段</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>从下面的列表中添加新的自定义字段</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>您的字段</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>您添加的自定义字段列表</t>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>全新进口</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
@@ -17929,7 +17860,7 @@
     <t>Container type</t>
   </si>
   <si>
-    <t>容器类型</t>
+    <t>集装箱类型</t>
   </si>
   <si>
     <t>Animations</t>
@@ -17942,501 +17873,6 @@
   </si>
   <si>
     <t>重新加载样式</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>链接到</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>预览包</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>演示</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>采用</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>当前</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>重新排序</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>系统</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>浏览器重定向</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>集成</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>独立更新程序</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>您需要许可证密钥才能安装此软件包</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>此软件包是高级软件包，您必须拥有许可证密钥才能安装它</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>您需要许可证密钥</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>许可证已激活</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>重新加载页面</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>许可证未激活</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>系统更新</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>检查系统更新</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>返回目录</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>类别必须有名称</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>类别是否隐藏？</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>如果您将此设置为 YES，则此类别将从网站中隐藏</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>提及</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>您的购物车是空的。</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>找到的结果</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>如果您从选择字段中选择百分比，它将根据产品的价格和报价自动计算。</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US。</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>呸呸呸</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>进行结算</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>显示</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>的</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>结果）</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>页面标题 - 右路径导航</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>页面标题 - 左路径导航</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>使用条款</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>送货和退货</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>配送信息</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>关于 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>关于 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>关于 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>首页1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>首页 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>您必须单击应用模板按钮才能更改您的模板</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>按条件搜索</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>日期自</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>设置从日期开始的订单</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>日期至</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>设置迄今为止的订单</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>订单金额自</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>显示最低金额的订单</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>订单金额为</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>显示最大金额的订单</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>按产品搜索...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>按产品搜索</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>支付状态</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>通过电话、姓名、电子邮件等自由搜索...</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>提交此条件</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>重置过滤器</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>全部导出</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>选择排序</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>订单日期</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[新&gt;旧]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[旧&gt;新]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[高&gt;低]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[低&gt;高]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>订单完成</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>已在您的数据库中找到来自 multilnaguage 模块的翻译。</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>警告！更改默认语言可能会破坏您网站上的翻译。</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>您确定要继续吗？</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>警告！更改默认语言可能会破坏您的网站。</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>配送详情</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>配送方式</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>订单尚未完成</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">快速浏览 </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>替换语言值</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>翻译已导入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">在数据库中找不到翻译。您要导入翻译吗？ </t>
   </si>
 </sst>
 </file>
@@ -18772,7 +18208,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -69145,7 +68581,7 @@
         <v>5652</v>
       </c>
       <c r="D2963" t="s">
-        <v>5653</v>
+        <v>2855</v>
       </c>
       <c r="E2963" t="s">
         <v>8</v>
@@ -69159,10 +68595,10 @@
         <v>5</v>
       </c>
       <c r="C2964" t="s">
+        <v>5653</v>
+      </c>
+      <c r="D2964" t="s">
         <v>5654</v>
-      </c>
-      <c r="D2964" t="s">
-        <v>5655</v>
       </c>
       <c r="E2964" t="s">
         <v>8</v>
@@ -69176,10 +68612,10 @@
         <v>5</v>
       </c>
       <c r="C2965" t="s">
+        <v>5655</v>
+      </c>
+      <c r="D2965" t="s">
         <v>5656</v>
-      </c>
-      <c r="D2965" t="s">
-        <v>5657</v>
       </c>
       <c r="E2965" t="s">
         <v>8</v>
@@ -69193,10 +68629,10 @@
         <v>5</v>
       </c>
       <c r="C2966" t="s">
+        <v>5657</v>
+      </c>
+      <c r="D2966" t="s">
         <v>5658</v>
-      </c>
-      <c r="D2966" t="s">
-        <v>5659</v>
       </c>
       <c r="E2966" t="s">
         <v>8</v>
@@ -69210,10 +68646,10 @@
         <v>5</v>
       </c>
       <c r="C2967" t="s">
+        <v>5659</v>
+      </c>
+      <c r="D2967" t="s">
         <v>5660</v>
-      </c>
-      <c r="D2967" t="s">
-        <v>5661</v>
       </c>
       <c r="E2967" t="s">
         <v>8</v>
@@ -69227,10 +68663,10 @@
         <v>5</v>
       </c>
       <c r="C2968" t="s">
+        <v>5661</v>
+      </c>
+      <c r="D2968" t="s">
         <v>5662</v>
-      </c>
-      <c r="D2968" t="s">
-        <v>5663</v>
       </c>
       <c r="E2968" t="s">
         <v>8</v>
@@ -69244,10 +68680,10 @@
         <v>5</v>
       </c>
       <c r="C2969" t="s">
+        <v>5663</v>
+      </c>
+      <c r="D2969" t="s">
         <v>5664</v>
-      </c>
-      <c r="D2969" t="s">
-        <v>5665</v>
       </c>
       <c r="E2969" t="s">
         <v>8</v>
@@ -69261,10 +68697,10 @@
         <v>5</v>
       </c>
       <c r="C2970" t="s">
+        <v>5665</v>
+      </c>
+      <c r="D2970" t="s">
         <v>5666</v>
-      </c>
-      <c r="D2970" t="s">
-        <v>5667</v>
       </c>
       <c r="E2970" t="s">
         <v>8</v>
@@ -69278,10 +68714,10 @@
         <v>5</v>
       </c>
       <c r="C2971" t="s">
+        <v>5667</v>
+      </c>
+      <c r="D2971" t="s">
         <v>5668</v>
-      </c>
-      <c r="D2971" t="s">
-        <v>5669</v>
       </c>
       <c r="E2971" t="s">
         <v>8</v>
@@ -69295,10 +68731,10 @@
         <v>5</v>
       </c>
       <c r="C2972" t="s">
+        <v>5669</v>
+      </c>
+      <c r="D2972" t="s">
         <v>5670</v>
-      </c>
-      <c r="D2972" t="s">
-        <v>5671</v>
       </c>
       <c r="E2972" t="s">
         <v>8</v>
@@ -69312,10 +68748,10 @@
         <v>5</v>
       </c>
       <c r="C2973" t="s">
+        <v>5671</v>
+      </c>
+      <c r="D2973" t="s">
         <v>5672</v>
-      </c>
-      <c r="D2973" t="s">
-        <v>5673</v>
       </c>
       <c r="E2973" t="s">
         <v>8</v>
@@ -69329,10 +68765,10 @@
         <v>5</v>
       </c>
       <c r="C2974" t="s">
+        <v>5673</v>
+      </c>
+      <c r="D2974" t="s">
         <v>5674</v>
-      </c>
-      <c r="D2974" t="s">
-        <v>5675</v>
       </c>
       <c r="E2974" t="s">
         <v>8</v>
@@ -69346,10 +68782,10 @@
         <v>5</v>
       </c>
       <c r="C2975" t="s">
+        <v>5675</v>
+      </c>
+      <c r="D2975" t="s">
         <v>5676</v>
-      </c>
-      <c r="D2975" t="s">
-        <v>5677</v>
       </c>
       <c r="E2975" t="s">
         <v>8</v>
@@ -69363,10 +68799,10 @@
         <v>5</v>
       </c>
       <c r="C2976" t="s">
+        <v>5677</v>
+      </c>
+      <c r="D2976" t="s">
         <v>5678</v>
-      </c>
-      <c r="D2976" t="s">
-        <v>5679</v>
       </c>
       <c r="E2976" t="s">
         <v>8</v>
@@ -69380,10 +68816,10 @@
         <v>5</v>
       </c>
       <c r="C2977" t="s">
+        <v>5679</v>
+      </c>
+      <c r="D2977" t="s">
         <v>5680</v>
-      </c>
-      <c r="D2977" t="s">
-        <v>5681</v>
       </c>
       <c r="E2977" t="s">
         <v>8</v>
@@ -69397,10 +68833,10 @@
         <v>5</v>
       </c>
       <c r="C2978" t="s">
+        <v>5681</v>
+      </c>
+      <c r="D2978" t="s">
         <v>5682</v>
-      </c>
-      <c r="D2978" t="s">
-        <v>5683</v>
       </c>
       <c r="E2978" t="s">
         <v>8</v>
@@ -69414,10 +68850,10 @@
         <v>5</v>
       </c>
       <c r="C2979" t="s">
+        <v>5683</v>
+      </c>
+      <c r="D2979" t="s">
         <v>5684</v>
-      </c>
-      <c r="D2979" t="s">
-        <v>5685</v>
       </c>
       <c r="E2979" t="s">
         <v>8</v>
@@ -69431,10 +68867,10 @@
         <v>5</v>
       </c>
       <c r="C2980" t="s">
+        <v>5685</v>
+      </c>
+      <c r="D2980" t="s">
         <v>5686</v>
-      </c>
-      <c r="D2980" t="s">
-        <v>5687</v>
       </c>
       <c r="E2980" t="s">
         <v>8</v>
@@ -69448,10 +68884,10 @@
         <v>5</v>
       </c>
       <c r="C2981" t="s">
+        <v>5687</v>
+      </c>
+      <c r="D2981" t="s">
         <v>5688</v>
-      </c>
-      <c r="D2981" t="s">
-        <v>5689</v>
       </c>
       <c r="E2981" t="s">
         <v>8</v>
@@ -69465,10 +68901,10 @@
         <v>5</v>
       </c>
       <c r="C2982" t="s">
+        <v>5689</v>
+      </c>
+      <c r="D2982" t="s">
         <v>5690</v>
-      </c>
-      <c r="D2982" t="s">
-        <v>5691</v>
       </c>
       <c r="E2982" t="s">
         <v>8</v>
@@ -69482,10 +68918,10 @@
         <v>5</v>
       </c>
       <c r="C2983" t="s">
+        <v>5691</v>
+      </c>
+      <c r="D2983" t="s">
         <v>5692</v>
-      </c>
-      <c r="D2983" t="s">
-        <v>5693</v>
       </c>
       <c r="E2983" t="s">
         <v>8</v>
@@ -69499,10 +68935,10 @@
         <v>5</v>
       </c>
       <c r="C2984" t="s">
+        <v>5693</v>
+      </c>
+      <c r="D2984" t="s">
         <v>5694</v>
-      </c>
-      <c r="D2984" t="s">
-        <v>5695</v>
       </c>
       <c r="E2984" t="s">
         <v>8</v>
@@ -69516,10 +68952,10 @@
         <v>5</v>
       </c>
       <c r="C2985" t="s">
+        <v>5695</v>
+      </c>
+      <c r="D2985" t="s">
         <v>5696</v>
-      </c>
-      <c r="D2985" t="s">
-        <v>5697</v>
       </c>
       <c r="E2985" t="s">
         <v>8</v>
@@ -69533,10 +68969,10 @@
         <v>5</v>
       </c>
       <c r="C2986" t="s">
+        <v>5697</v>
+      </c>
+      <c r="D2986" t="s">
         <v>5698</v>
-      </c>
-      <c r="D2986" t="s">
-        <v>5699</v>
       </c>
       <c r="E2986" t="s">
         <v>8</v>
@@ -69550,10 +68986,10 @@
         <v>5</v>
       </c>
       <c r="C2987" t="s">
+        <v>5699</v>
+      </c>
+      <c r="D2987" t="s">
         <v>5700</v>
-      </c>
-      <c r="D2987" t="s">
-        <v>5701</v>
       </c>
       <c r="E2987" t="s">
         <v>8</v>
@@ -69567,7 +69003,7 @@
         <v>5</v>
       </c>
       <c r="C2988" t="s">
-        <v>5702</v>
+        <v>5701</v>
       </c>
       <c r="D2988" t="s">
         <v>653</v>
@@ -69584,10 +69020,10 @@
         <v>5</v>
       </c>
       <c r="C2989" t="s">
+        <v>5702</v>
+      </c>
+      <c r="D2989" t="s">
         <v>5703</v>
-      </c>
-      <c r="D2989" t="s">
-        <v>5704</v>
       </c>
       <c r="E2989" t="s">
         <v>8</v>
@@ -69601,10 +69037,10 @@
         <v>5</v>
       </c>
       <c r="C2990" t="s">
+        <v>5704</v>
+      </c>
+      <c r="D2990" t="s">
         <v>5705</v>
-      </c>
-      <c r="D2990" t="s">
-        <v>5706</v>
       </c>
       <c r="E2990" t="s">
         <v>8</v>
@@ -69618,10 +69054,10 @@
         <v>5</v>
       </c>
       <c r="C2991" t="s">
+        <v>5706</v>
+      </c>
+      <c r="D2991" t="s">
         <v>5707</v>
-      </c>
-      <c r="D2991" t="s">
-        <v>5708</v>
       </c>
       <c r="E2991" t="s">
         <v>8</v>
@@ -69635,10 +69071,10 @@
         <v>5</v>
       </c>
       <c r="C2992" t="s">
+        <v>5708</v>
+      </c>
+      <c r="D2992" t="s">
         <v>5709</v>
-      </c>
-      <c r="D2992" t="s">
-        <v>5710</v>
       </c>
       <c r="E2992" t="s">
         <v>8</v>
@@ -69652,10 +69088,10 @@
         <v>5</v>
       </c>
       <c r="C2993" t="s">
+        <v>5710</v>
+      </c>
+      <c r="D2993" t="s">
         <v>5711</v>
-      </c>
-      <c r="D2993" t="s">
-        <v>5712</v>
       </c>
       <c r="E2993" t="s">
         <v>8</v>
@@ -69669,10 +69105,10 @@
         <v>5</v>
       </c>
       <c r="C2994" t="s">
+        <v>5712</v>
+      </c>
+      <c r="D2994" t="s">
         <v>5713</v>
-      </c>
-      <c r="D2994" t="s">
-        <v>5714</v>
       </c>
       <c r="E2994" t="s">
         <v>8</v>
@@ -69686,10 +69122,10 @@
         <v>5</v>
       </c>
       <c r="C2995" t="s">
+        <v>5714</v>
+      </c>
+      <c r="D2995" t="s">
         <v>5715</v>
-      </c>
-      <c r="D2995" t="s">
-        <v>5716</v>
       </c>
       <c r="E2995" t="s">
         <v>8</v>
@@ -69703,10 +69139,10 @@
         <v>5</v>
       </c>
       <c r="C2996" t="s">
+        <v>5716</v>
+      </c>
+      <c r="D2996" t="s">
         <v>5717</v>
-      </c>
-      <c r="D2996" t="s">
-        <v>5718</v>
       </c>
       <c r="E2996" t="s">
         <v>8</v>
@@ -69720,10 +69156,10 @@
         <v>5</v>
       </c>
       <c r="C2997" t="s">
+        <v>5718</v>
+      </c>
+      <c r="D2997" t="s">
         <v>5719</v>
-      </c>
-      <c r="D2997" t="s">
-        <v>5720</v>
       </c>
       <c r="E2997" t="s">
         <v>8</v>
@@ -69737,10 +69173,10 @@
         <v>5</v>
       </c>
       <c r="C2998" t="s">
+        <v>5720</v>
+      </c>
+      <c r="D2998" t="s">
         <v>5721</v>
-      </c>
-      <c r="D2998" t="s">
-        <v>5722</v>
       </c>
       <c r="E2998" t="s">
         <v>8</v>
@@ -69754,10 +69190,10 @@
         <v>5</v>
       </c>
       <c r="C2999" t="s">
+        <v>5722</v>
+      </c>
+      <c r="D2999" t="s">
         <v>5723</v>
-      </c>
-      <c r="D2999" t="s">
-        <v>5724</v>
       </c>
       <c r="E2999" t="s">
         <v>8</v>
@@ -69771,10 +69207,10 @@
         <v>5</v>
       </c>
       <c r="C3000" t="s">
+        <v>5724</v>
+      </c>
+      <c r="D3000" t="s">
         <v>5725</v>
-      </c>
-      <c r="D3000" t="s">
-        <v>5726</v>
       </c>
       <c r="E3000" t="s">
         <v>8</v>
@@ -69788,10 +69224,10 @@
         <v>5</v>
       </c>
       <c r="C3001" t="s">
+        <v>5726</v>
+      </c>
+      <c r="D3001" t="s">
         <v>5727</v>
-      </c>
-      <c r="D3001" t="s">
-        <v>5728</v>
       </c>
       <c r="E3001" t="s">
         <v>8</v>
@@ -69805,10 +69241,10 @@
         <v>5</v>
       </c>
       <c r="C3002" t="s">
+        <v>5728</v>
+      </c>
+      <c r="D3002" t="s">
         <v>5729</v>
-      </c>
-      <c r="D3002" t="s">
-        <v>5730</v>
       </c>
       <c r="E3002" t="s">
         <v>8</v>
@@ -69822,10 +69258,10 @@
         <v>5</v>
       </c>
       <c r="C3003" t="s">
+        <v>5730</v>
+      </c>
+      <c r="D3003" t="s">
         <v>5731</v>
-      </c>
-      <c r="D3003" t="s">
-        <v>5732</v>
       </c>
       <c r="E3003" t="s">
         <v>8</v>
@@ -69839,10 +69275,10 @@
         <v>5</v>
       </c>
       <c r="C3004" t="s">
+        <v>5732</v>
+      </c>
+      <c r="D3004" t="s">
         <v>5733</v>
-      </c>
-      <c r="D3004" t="s">
-        <v>5734</v>
       </c>
       <c r="E3004" t="s">
         <v>8</v>
@@ -69856,10 +69292,10 @@
         <v>5</v>
       </c>
       <c r="C3005" t="s">
+        <v>5734</v>
+      </c>
+      <c r="D3005" t="s">
         <v>5735</v>
-      </c>
-      <c r="D3005" t="s">
-        <v>5736</v>
       </c>
       <c r="E3005" t="s">
         <v>8</v>
@@ -69873,10 +69309,10 @@
         <v>5</v>
       </c>
       <c r="C3006" t="s">
+        <v>5736</v>
+      </c>
+      <c r="D3006" t="s">
         <v>5737</v>
-      </c>
-      <c r="D3006" t="s">
-        <v>5738</v>
       </c>
       <c r="E3006" t="s">
         <v>8</v>
@@ -69890,10 +69326,10 @@
         <v>5</v>
       </c>
       <c r="C3007" t="s">
+        <v>5738</v>
+      </c>
+      <c r="D3007" t="s">
         <v>5739</v>
-      </c>
-      <c r="D3007" t="s">
-        <v>5740</v>
       </c>
       <c r="E3007" t="s">
         <v>8</v>
@@ -69907,10 +69343,10 @@
         <v>5</v>
       </c>
       <c r="C3008" t="s">
+        <v>5740</v>
+      </c>
+      <c r="D3008" t="s">
         <v>5741</v>
-      </c>
-      <c r="D3008" t="s">
-        <v>5742</v>
       </c>
       <c r="E3008" t="s">
         <v>8</v>
@@ -69924,7 +69360,7 @@
         <v>5</v>
       </c>
       <c r="C3009" t="s">
-        <v>5743</v>
+        <v>5742</v>
       </c>
       <c r="D3009" t="s">
         <v>3209</v>
@@ -69941,7 +69377,7 @@
         <v>5</v>
       </c>
       <c r="C3010" t="s">
-        <v>5744</v>
+        <v>5743</v>
       </c>
       <c r="D3010" t="s">
         <v>3052</v>
@@ -69958,10 +69394,10 @@
         <v>5</v>
       </c>
       <c r="C3011" t="s">
+        <v>5744</v>
+      </c>
+      <c r="D3011" t="s">
         <v>5745</v>
-      </c>
-      <c r="D3011" t="s">
-        <v>5746</v>
       </c>
       <c r="E3011" t="s">
         <v>8</v>
@@ -69975,10 +69411,10 @@
         <v>5</v>
       </c>
       <c r="C3012" t="s">
-        <v>5747</v>
+        <v>5746</v>
       </c>
       <c r="D3012" t="s">
-        <v>5747</v>
+        <v>5746</v>
       </c>
       <c r="E3012" t="s">
         <v>8</v>
@@ -69992,10 +69428,10 @@
         <v>5</v>
       </c>
       <c r="C3013" t="s">
-        <v>5748</v>
+        <v>5747</v>
       </c>
       <c r="D3013" t="s">
-        <v>5748</v>
+        <v>5747</v>
       </c>
       <c r="E3013" t="s">
         <v>8</v>
@@ -70009,10 +69445,10 @@
         <v>5</v>
       </c>
       <c r="C3014" t="s">
+        <v>5748</v>
+      </c>
+      <c r="D3014" t="s">
         <v>5749</v>
-      </c>
-      <c r="D3014" t="s">
-        <v>5750</v>
       </c>
       <c r="E3014" t="s">
         <v>8</v>
@@ -70026,10 +69462,10 @@
         <v>5</v>
       </c>
       <c r="C3015" t="s">
+        <v>5750</v>
+      </c>
+      <c r="D3015" t="s">
         <v>5751</v>
-      </c>
-      <c r="D3015" t="s">
-        <v>5752</v>
       </c>
       <c r="E3015" t="s">
         <v>8</v>
@@ -70043,10 +69479,10 @@
         <v>5</v>
       </c>
       <c r="C3016" t="s">
+        <v>5752</v>
+      </c>
+      <c r="D3016" t="s">
         <v>5753</v>
-      </c>
-      <c r="D3016" t="s">
-        <v>5754</v>
       </c>
       <c r="E3016" t="s">
         <v>8</v>
@@ -70060,10 +69496,10 @@
         <v>5</v>
       </c>
       <c r="C3017" t="s">
+        <v>5754</v>
+      </c>
+      <c r="D3017" t="s">
         <v>5755</v>
-      </c>
-      <c r="D3017" t="s">
-        <v>5756</v>
       </c>
       <c r="E3017" t="s">
         <v>8</v>
@@ -70077,7 +69513,7 @@
         <v>5</v>
       </c>
       <c r="C3018" t="s">
-        <v>5757</v>
+        <v>5756</v>
       </c>
       <c r="D3018" t="s">
         <v>2885</v>
@@ -70094,10 +69530,10 @@
         <v>5</v>
       </c>
       <c r="C3019" t="s">
+        <v>5757</v>
+      </c>
+      <c r="D3019" t="s">
         <v>5758</v>
-      </c>
-      <c r="D3019" t="s">
-        <v>5759</v>
       </c>
       <c r="E3019" t="s">
         <v>8</v>
@@ -70111,7 +69547,7 @@
         <v>5</v>
       </c>
       <c r="C3020" t="s">
-        <v>5760</v>
+        <v>5759</v>
       </c>
       <c r="D3020" t="s">
         <v>1571</v>
@@ -70128,10 +69564,10 @@
         <v>5</v>
       </c>
       <c r="C3021" t="s">
+        <v>5760</v>
+      </c>
+      <c r="D3021" t="s">
         <v>5761</v>
-      </c>
-      <c r="D3021" t="s">
-        <v>5762</v>
       </c>
       <c r="E3021" t="s">
         <v>8</v>
@@ -70145,10 +69581,10 @@
         <v>5</v>
       </c>
       <c r="C3022" t="s">
+        <v>5762</v>
+      </c>
+      <c r="D3022" t="s">
         <v>5763</v>
-      </c>
-      <c r="D3022" t="s">
-        <v>5764</v>
       </c>
       <c r="E3022" t="s">
         <v>8</v>
@@ -70162,10 +69598,10 @@
         <v>5</v>
       </c>
       <c r="C3023" t="s">
+        <v>5764</v>
+      </c>
+      <c r="D3023" t="s">
         <v>5765</v>
-      </c>
-      <c r="D3023" t="s">
-        <v>5766</v>
       </c>
       <c r="E3023" t="s">
         <v>8</v>
@@ -70179,10 +69615,10 @@
         <v>5</v>
       </c>
       <c r="C3024" t="s">
+        <v>5766</v>
+      </c>
+      <c r="D3024" t="s">
         <v>5767</v>
-      </c>
-      <c r="D3024" t="s">
-        <v>5768</v>
       </c>
       <c r="E3024" t="s">
         <v>8</v>
@@ -70196,10 +69632,10 @@
         <v>5</v>
       </c>
       <c r="C3025" t="s">
+        <v>5768</v>
+      </c>
+      <c r="D3025" t="s">
         <v>5769</v>
-      </c>
-      <c r="D3025" t="s">
-        <v>5770</v>
       </c>
       <c r="E3025" t="s">
         <v>8</v>
@@ -70213,10 +69649,10 @@
         <v>5</v>
       </c>
       <c r="C3026" t="s">
+        <v>5770</v>
+      </c>
+      <c r="D3026" t="s">
         <v>5771</v>
-      </c>
-      <c r="D3026" t="s">
-        <v>5772</v>
       </c>
       <c r="E3026" t="s">
         <v>8</v>
@@ -70230,10 +69666,10 @@
         <v>5</v>
       </c>
       <c r="C3027" t="s">
+        <v>5772</v>
+      </c>
+      <c r="D3027" t="s">
         <v>5773</v>
-      </c>
-      <c r="D3027" t="s">
-        <v>5774</v>
       </c>
       <c r="E3027" t="s">
         <v>8</v>
@@ -70247,10 +69683,10 @@
         <v>5</v>
       </c>
       <c r="C3028" t="s">
+        <v>5774</v>
+      </c>
+      <c r="D3028" t="s">
         <v>5775</v>
-      </c>
-      <c r="D3028" t="s">
-        <v>5776</v>
       </c>
       <c r="E3028" t="s">
         <v>8</v>
@@ -70264,10 +69700,10 @@
         <v>5</v>
       </c>
       <c r="C3029" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D3029" t="s">
         <v>5777</v>
-      </c>
-      <c r="D3029" t="s">
-        <v>5778</v>
       </c>
       <c r="E3029" t="s">
         <v>8</v>
@@ -70281,10 +69717,10 @@
         <v>5</v>
       </c>
       <c r="C3030" t="s">
+        <v>5778</v>
+      </c>
+      <c r="D3030" t="s">
         <v>5779</v>
-      </c>
-      <c r="D3030" t="s">
-        <v>5780</v>
       </c>
       <c r="E3030" t="s">
         <v>8</v>
@@ -70298,10 +69734,10 @@
         <v>5</v>
       </c>
       <c r="C3031" t="s">
+        <v>5780</v>
+      </c>
+      <c r="D3031" t="s">
         <v>5781</v>
-      </c>
-      <c r="D3031" t="s">
-        <v>5782</v>
       </c>
       <c r="E3031" t="s">
         <v>8</v>
@@ -70315,10 +69751,10 @@
         <v>5</v>
       </c>
       <c r="C3032" t="s">
+        <v>5782</v>
+      </c>
+      <c r="D3032" t="s">
         <v>5783</v>
-      </c>
-      <c r="D3032" t="s">
-        <v>5784</v>
       </c>
       <c r="E3032" t="s">
         <v>8</v>
@@ -70332,7 +69768,7 @@
         <v>5</v>
       </c>
       <c r="C3033" t="s">
-        <v>5785</v>
+        <v>5784</v>
       </c>
       <c r="D3033" t="s">
         <v>4857</v>
@@ -70349,10 +69785,10 @@
         <v>5</v>
       </c>
       <c r="C3034" t="s">
+        <v>5785</v>
+      </c>
+      <c r="D3034" t="s">
         <v>5786</v>
-      </c>
-      <c r="D3034" t="s">
-        <v>5787</v>
       </c>
       <c r="E3034" t="s">
         <v>8</v>
@@ -70366,7 +69802,7 @@
         <v>5</v>
       </c>
       <c r="C3035" t="s">
-        <v>5788</v>
+        <v>5787</v>
       </c>
       <c r="D3035" t="s">
         <v>4867</v>
@@ -70383,10 +69819,10 @@
         <v>5</v>
       </c>
       <c r="C3036" t="s">
+        <v>5788</v>
+      </c>
+      <c r="D3036" t="s">
         <v>5789</v>
-      </c>
-      <c r="D3036" t="s">
-        <v>5790</v>
       </c>
       <c r="E3036" t="s">
         <v>8</v>
@@ -70400,10 +69836,10 @@
         <v>5</v>
       </c>
       <c r="C3037" t="s">
+        <v>5790</v>
+      </c>
+      <c r="D3037" t="s">
         <v>5791</v>
-      </c>
-      <c r="D3037" t="s">
-        <v>5792</v>
       </c>
       <c r="E3037" t="s">
         <v>8</v>
@@ -70417,10 +69853,10 @@
         <v>5</v>
       </c>
       <c r="C3038" t="s">
+        <v>5792</v>
+      </c>
+      <c r="D3038" t="s">
         <v>5793</v>
-      </c>
-      <c r="D3038" t="s">
-        <v>5794</v>
       </c>
       <c r="E3038" t="s">
         <v>8</v>
@@ -70434,10 +69870,10 @@
         <v>5</v>
       </c>
       <c r="C3039" t="s">
+        <v>5794</v>
+      </c>
+      <c r="D3039" t="s">
         <v>5795</v>
-      </c>
-      <c r="D3039" t="s">
-        <v>5796</v>
       </c>
       <c r="E3039" t="s">
         <v>8</v>
@@ -70451,10 +69887,10 @@
         <v>5</v>
       </c>
       <c r="C3040" t="s">
+        <v>5796</v>
+      </c>
+      <c r="D3040" t="s">
         <v>5797</v>
-      </c>
-      <c r="D3040" t="s">
-        <v>5798</v>
       </c>
       <c r="E3040" t="s">
         <v>8</v>
@@ -70468,10 +69904,10 @@
         <v>5</v>
       </c>
       <c r="C3041" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D3041" t="s">
         <v>5799</v>
-      </c>
-      <c r="D3041" t="s">
-        <v>5800</v>
       </c>
       <c r="E3041" t="s">
         <v>8</v>
@@ -70485,10 +69921,10 @@
         <v>5</v>
       </c>
       <c r="C3042" t="s">
+        <v>5800</v>
+      </c>
+      <c r="D3042" t="s">
         <v>5801</v>
-      </c>
-      <c r="D3042" t="s">
-        <v>5802</v>
       </c>
       <c r="E3042" t="s">
         <v>8</v>
@@ -70502,10 +69938,10 @@
         <v>5</v>
       </c>
       <c r="C3043" t="s">
+        <v>5802</v>
+      </c>
+      <c r="D3043" t="s">
         <v>5803</v>
-      </c>
-      <c r="D3043" t="s">
-        <v>5804</v>
       </c>
       <c r="E3043" t="s">
         <v>8</v>
@@ -70519,10 +69955,10 @@
         <v>5</v>
       </c>
       <c r="C3044" t="s">
+        <v>5804</v>
+      </c>
+      <c r="D3044" t="s">
         <v>5805</v>
-      </c>
-      <c r="D3044" t="s">
-        <v>5806</v>
       </c>
       <c r="E3044" t="s">
         <v>8</v>
@@ -70536,10 +69972,10 @@
         <v>5</v>
       </c>
       <c r="C3045" t="s">
+        <v>5806</v>
+      </c>
+      <c r="D3045" t="s">
         <v>5807</v>
-      </c>
-      <c r="D3045" t="s">
-        <v>5808</v>
       </c>
       <c r="E3045" t="s">
         <v>8</v>
@@ -70553,10 +69989,10 @@
         <v>5</v>
       </c>
       <c r="C3046" t="s">
+        <v>5808</v>
+      </c>
+      <c r="D3046" t="s">
         <v>5809</v>
-      </c>
-      <c r="D3046" t="s">
-        <v>5810</v>
       </c>
       <c r="E3046" t="s">
         <v>8</v>
@@ -70570,7 +70006,7 @@
         <v>5</v>
       </c>
       <c r="C3047" t="s">
-        <v>5811</v>
+        <v>5810</v>
       </c>
       <c r="D3047" t="s">
         <v>1966</v>
@@ -70587,10 +70023,10 @@
         <v>5</v>
       </c>
       <c r="C3048" t="s">
+        <v>5811</v>
+      </c>
+      <c r="D3048" t="s">
         <v>5812</v>
-      </c>
-      <c r="D3048" t="s">
-        <v>5813</v>
       </c>
       <c r="E3048" t="s">
         <v>8</v>
@@ -70604,7 +70040,7 @@
         <v>5</v>
       </c>
       <c r="C3049" t="s">
-        <v>5814</v>
+        <v>5813</v>
       </c>
       <c r="D3049" t="s">
         <v>823</v>
@@ -70621,10 +70057,10 @@
         <v>5</v>
       </c>
       <c r="C3050" t="s">
+        <v>5814</v>
+      </c>
+      <c r="D3050" t="s">
         <v>5815</v>
-      </c>
-      <c r="D3050" t="s">
-        <v>5816</v>
       </c>
       <c r="E3050" t="s">
         <v>8</v>
@@ -70638,10 +70074,10 @@
         <v>5</v>
       </c>
       <c r="C3051" t="s">
+        <v>5816</v>
+      </c>
+      <c r="D3051" t="s">
         <v>5817</v>
-      </c>
-      <c r="D3051" t="s">
-        <v>5818</v>
       </c>
       <c r="E3051" t="s">
         <v>8</v>
@@ -70655,10 +70091,10 @@
         <v>5</v>
       </c>
       <c r="C3052" t="s">
+        <v>5818</v>
+      </c>
+      <c r="D3052" t="s">
         <v>5819</v>
-      </c>
-      <c r="D3052" t="s">
-        <v>5820</v>
       </c>
       <c r="E3052" t="s">
         <v>8</v>
@@ -70672,10 +70108,10 @@
         <v>5</v>
       </c>
       <c r="C3053" t="s">
+        <v>5820</v>
+      </c>
+      <c r="D3053" t="s">
         <v>5821</v>
-      </c>
-      <c r="D3053" t="s">
-        <v>5822</v>
       </c>
       <c r="E3053" t="s">
         <v>8</v>
@@ -70689,10 +70125,10 @@
         <v>5</v>
       </c>
       <c r="C3054" t="s">
+        <v>5822</v>
+      </c>
+      <c r="D3054" t="s">
         <v>5823</v>
-      </c>
-      <c r="D3054" t="s">
-        <v>5824</v>
       </c>
       <c r="E3054" t="s">
         <v>8</v>
@@ -70706,10 +70142,10 @@
         <v>5</v>
       </c>
       <c r="C3055" t="s">
+        <v>5824</v>
+      </c>
+      <c r="D3055" t="s">
         <v>5825</v>
-      </c>
-      <c r="D3055" t="s">
-        <v>5826</v>
       </c>
       <c r="E3055" t="s">
         <v>8</v>
@@ -70723,10 +70159,10 @@
         <v>5</v>
       </c>
       <c r="C3056" t="s">
+        <v>5826</v>
+      </c>
+      <c r="D3056" t="s">
         <v>5827</v>
-      </c>
-      <c r="D3056" t="s">
-        <v>5828</v>
       </c>
       <c r="E3056" t="s">
         <v>8</v>
@@ -70740,10 +70176,10 @@
         <v>5</v>
       </c>
       <c r="C3057" t="s">
+        <v>5828</v>
+      </c>
+      <c r="D3057" t="s">
         <v>5829</v>
-      </c>
-      <c r="D3057" t="s">
-        <v>5830</v>
       </c>
       <c r="E3057" t="s">
         <v>8</v>
@@ -70757,10 +70193,10 @@
         <v>5</v>
       </c>
       <c r="C3058" t="s">
+        <v>5830</v>
+      </c>
+      <c r="D3058" t="s">
         <v>5831</v>
-      </c>
-      <c r="D3058" t="s">
-        <v>5832</v>
       </c>
       <c r="E3058" t="s">
         <v>8</v>
@@ -70774,10 +70210,10 @@
         <v>5</v>
       </c>
       <c r="C3059" t="s">
+        <v>5832</v>
+      </c>
+      <c r="D3059" t="s">
         <v>5833</v>
-      </c>
-      <c r="D3059" t="s">
-        <v>5834</v>
       </c>
       <c r="E3059" t="s">
         <v>8</v>
@@ -70791,10 +70227,10 @@
         <v>5</v>
       </c>
       <c r="C3060" t="s">
+        <v>5834</v>
+      </c>
+      <c r="D3060" t="s">
         <v>5835</v>
-      </c>
-      <c r="D3060" t="s">
-        <v>5836</v>
       </c>
       <c r="E3060" t="s">
         <v>8</v>
@@ -70808,10 +70244,10 @@
         <v>5</v>
       </c>
       <c r="C3061" t="s">
+        <v>5836</v>
+      </c>
+      <c r="D3061" t="s">
         <v>5837</v>
-      </c>
-      <c r="D3061" t="s">
-        <v>5838</v>
       </c>
       <c r="E3061" t="s">
         <v>8</v>
@@ -70822,13 +70258,13 @@
         <v>5</v>
       </c>
       <c r="B3062" t="s">
+        <v>5838</v>
+      </c>
+      <c r="C3062" t="s">
         <v>5839</v>
       </c>
-      <c r="C3062" t="s">
+      <c r="D3062" t="s">
         <v>5840</v>
-      </c>
-      <c r="D3062" t="s">
-        <v>5841</v>
       </c>
       <c r="E3062" t="s">
         <v>8</v>
@@ -70842,10 +70278,10 @@
         <v>5</v>
       </c>
       <c r="C3063" t="s">
+        <v>5841</v>
+      </c>
+      <c r="D3063" t="s">
         <v>5842</v>
-      </c>
-      <c r="D3063" t="s">
-        <v>5843</v>
       </c>
       <c r="E3063" t="s">
         <v>8</v>
@@ -70859,10 +70295,10 @@
         <v>5</v>
       </c>
       <c r="C3064" t="s">
-        <v>5844</v>
+        <v>5843</v>
       </c>
       <c r="D3064" t="s">
-        <v>5845</v>
+        <v>4225</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -70876,10 +70312,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
-        <v>5846</v>
+        <v>5844</v>
       </c>
       <c r="D3065" t="s">
-        <v>5847</v>
+        <v>5845</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -70893,10 +70329,10 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
-        <v>5848</v>
+        <v>5846</v>
       </c>
       <c r="D3066" t="s">
-        <v>5849</v>
+        <v>5847</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -70910,10 +70346,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
-        <v>5850</v>
+        <v>5848</v>
       </c>
       <c r="D3067" t="s">
-        <v>52</v>
+        <v>5849</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -70927,10 +70363,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
+        <v>5850</v>
+      </c>
+      <c r="D3068" t="s">
         <v>5851</v>
-      </c>
-      <c r="D3068" t="s">
-        <v>5852</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -70944,10 +70380,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
+        <v>5852</v>
+      </c>
+      <c r="D3069" t="s">
         <v>5853</v>
-      </c>
-      <c r="D3069" t="s">
-        <v>5854</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -70961,10 +70397,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
+        <v>5854</v>
+      </c>
+      <c r="D3070" t="s">
         <v>5855</v>
-      </c>
-      <c r="D3070" t="s">
-        <v>5856</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -70978,10 +70414,10 @@
         <v>5</v>
       </c>
       <c r="C3071" t="s">
+        <v>5856</v>
+      </c>
+      <c r="D3071" t="s">
         <v>5857</v>
-      </c>
-      <c r="D3071" t="s">
-        <v>5858</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -70995,10 +70431,10 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
+        <v>5858</v>
+      </c>
+      <c r="D3072" t="s">
         <v>5859</v>
-      </c>
-      <c r="D3072" t="s">
-        <v>5860</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -71012,10 +70448,10 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
+        <v>5860</v>
+      </c>
+      <c r="D3073" t="s">
         <v>5861</v>
-      </c>
-      <c r="D3073" t="s">
-        <v>5862</v>
       </c>
       <c r="E3073" t="s">
         <v>8</v>
@@ -71029,10 +70465,10 @@
         <v>5</v>
       </c>
       <c r="C3074" t="s">
+        <v>5862</v>
+      </c>
+      <c r="D3074" t="s">
         <v>5863</v>
-      </c>
-      <c r="D3074" t="s">
-        <v>5864</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -71046,10 +70482,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
+        <v>5864</v>
+      </c>
+      <c r="D3075" t="s">
         <v>5865</v>
-      </c>
-      <c r="D3075" t="s">
-        <v>5866</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71063,10 +70499,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
-        <v>5867</v>
+        <v>5866</v>
       </c>
       <c r="D3076" t="s">
-        <v>5868</v>
+        <v>3484</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -71080,10 +70516,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
-        <v>5869</v>
+        <v>5867</v>
       </c>
       <c r="D3077" t="s">
-        <v>5870</v>
+        <v>5868</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -71097,10 +70533,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5871</v>
+        <v>5869</v>
       </c>
       <c r="D3078" t="s">
-        <v>5872</v>
+        <v>2143</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71114,10 +70550,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
-        <v>5873</v>
+        <v>5870</v>
       </c>
       <c r="D3079" t="s">
-        <v>5874</v>
+        <v>5871</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -71131,10 +70567,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
-        <v>5875</v>
+        <v>5872</v>
       </c>
       <c r="D3080" t="s">
-        <v>5876</v>
+        <v>5873</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -71148,10 +70584,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
-        <v>5877</v>
+        <v>5874</v>
       </c>
       <c r="D3081" t="s">
-        <v>5878</v>
+        <v>5875</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -71165,10 +70601,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
-        <v>5879</v>
+        <v>5876</v>
       </c>
       <c r="D3082" t="s">
-        <v>5880</v>
+        <v>5877</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -71182,10 +70618,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
-        <v>5881</v>
+        <v>5878</v>
       </c>
       <c r="D3083" t="s">
-        <v>5882</v>
+        <v>5879</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -71199,10 +70635,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
-        <v>5883</v>
+        <v>5880</v>
       </c>
       <c r="D3084" t="s">
-        <v>5884</v>
+        <v>5881</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71216,10 +70652,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
-        <v>5885</v>
+        <v>5882</v>
       </c>
       <c r="D3085" t="s">
-        <v>5886</v>
+        <v>5883</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71233,10 +70669,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
-        <v>5887</v>
+        <v>5884</v>
       </c>
       <c r="D3086" t="s">
-        <v>5888</v>
+        <v>5885</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71250,10 +70686,10 @@
         <v>5</v>
       </c>
       <c r="C3087" t="s">
-        <v>5889</v>
+        <v>5886</v>
       </c>
       <c r="D3087" t="s">
-        <v>5890</v>
+        <v>5887</v>
       </c>
       <c r="E3087" t="s">
         <v>8</v>
@@ -71267,10 +70703,10 @@
         <v>5</v>
       </c>
       <c r="C3088" t="s">
-        <v>5891</v>
+        <v>5888</v>
       </c>
       <c r="D3088" t="s">
-        <v>5892</v>
+        <v>5889</v>
       </c>
       <c r="E3088" t="s">
         <v>8</v>
@@ -71284,10 +70720,10 @@
         <v>5</v>
       </c>
       <c r="C3089" t="s">
-        <v>5893</v>
+        <v>5890</v>
       </c>
       <c r="D3089" t="s">
-        <v>5894</v>
+        <v>5891</v>
       </c>
       <c r="E3089" t="s">
         <v>8</v>
@@ -71301,10 +70737,10 @@
         <v>5</v>
       </c>
       <c r="C3090" t="s">
-        <v>5895</v>
+        <v>5892</v>
       </c>
       <c r="D3090" t="s">
-        <v>5896</v>
+        <v>5893</v>
       </c>
       <c r="E3090" t="s">
         <v>8</v>
@@ -71318,10 +70754,10 @@
         <v>5</v>
       </c>
       <c r="C3091" t="s">
-        <v>5897</v>
+        <v>5894</v>
       </c>
       <c r="D3091" t="s">
-        <v>5898</v>
+        <v>5895</v>
       </c>
       <c r="E3091" t="s">
         <v>8</v>
@@ -71335,10 +70771,10 @@
         <v>5</v>
       </c>
       <c r="C3092" t="s">
-        <v>5899</v>
+        <v>5896</v>
       </c>
       <c r="D3092" t="s">
-        <v>1915</v>
+        <v>5897</v>
       </c>
       <c r="E3092" t="s">
         <v>8</v>
@@ -71352,10 +70788,10 @@
         <v>5</v>
       </c>
       <c r="C3093" t="s">
-        <v>5900</v>
+        <v>5898</v>
       </c>
       <c r="D3093" t="s">
-        <v>5901</v>
+        <v>5899</v>
       </c>
       <c r="E3093" t="s">
         <v>8</v>
@@ -71369,10 +70805,10 @@
         <v>5</v>
       </c>
       <c r="C3094" t="s">
-        <v>5902</v>
+        <v>5900</v>
       </c>
       <c r="D3094" t="s">
-        <v>5903</v>
+        <v>5901</v>
       </c>
       <c r="E3094" t="s">
         <v>8</v>
@@ -71386,10 +70822,10 @@
         <v>5</v>
       </c>
       <c r="C3095" t="s">
-        <v>5904</v>
+        <v>5902</v>
       </c>
       <c r="D3095" t="s">
-        <v>5905</v>
+        <v>5903</v>
       </c>
       <c r="E3095" t="s">
         <v>8</v>
@@ -71403,10 +70839,10 @@
         <v>5</v>
       </c>
       <c r="C3096" t="s">
-        <v>5906</v>
+        <v>5904</v>
       </c>
       <c r="D3096" t="s">
-        <v>5907</v>
+        <v>5905</v>
       </c>
       <c r="E3096" t="s">
         <v>8</v>
@@ -71420,10 +70856,10 @@
         <v>5</v>
       </c>
       <c r="C3097" t="s">
-        <v>5908</v>
+        <v>5906</v>
       </c>
       <c r="D3097" t="s">
-        <v>1087</v>
+        <v>5907</v>
       </c>
       <c r="E3097" t="s">
         <v>8</v>
@@ -71437,10 +70873,10 @@
         <v>5</v>
       </c>
       <c r="C3098" t="s">
+        <v>5908</v>
+      </c>
+      <c r="D3098" t="s">
         <v>5909</v>
-      </c>
-      <c r="D3098" t="s">
-        <v>2217</v>
       </c>
       <c r="E3098" t="s">
         <v>8</v>
@@ -71491,7 +70927,7 @@
         <v>5914</v>
       </c>
       <c r="D3101" t="s">
-        <v>5915</v>
+        <v>1513</v>
       </c>
       <c r="E3101" t="s">
         <v>8</v>
@@ -71505,10 +70941,10 @@
         <v>5</v>
       </c>
       <c r="C3102" t="s">
+        <v>5915</v>
+      </c>
+      <c r="D3102" t="s">
         <v>5916</v>
-      </c>
-      <c r="D3102" t="s">
-        <v>5917</v>
       </c>
       <c r="E3102" t="s">
         <v>8</v>
@@ -71522,10 +70958,10 @@
         <v>5</v>
       </c>
       <c r="C3103" t="s">
+        <v>5917</v>
+      </c>
+      <c r="D3103" t="s">
         <v>5918</v>
-      </c>
-      <c r="D3103" t="s">
-        <v>5919</v>
       </c>
       <c r="E3103" t="s">
         <v>8</v>
@@ -71539,10 +70975,10 @@
         <v>5</v>
       </c>
       <c r="C3104" t="s">
+        <v>5919</v>
+      </c>
+      <c r="D3104" t="s">
         <v>5920</v>
-      </c>
-      <c r="D3104" t="s">
-        <v>5921</v>
       </c>
       <c r="E3104" t="s">
         <v>8</v>
@@ -71556,10 +70992,10 @@
         <v>5</v>
       </c>
       <c r="C3105" t="s">
+        <v>5921</v>
+      </c>
+      <c r="D3105" t="s">
         <v>5922</v>
-      </c>
-      <c r="D3105" t="s">
-        <v>5923</v>
       </c>
       <c r="E3105" t="s">
         <v>8</v>
@@ -71573,10 +71009,10 @@
         <v>5</v>
       </c>
       <c r="C3106" t="s">
+        <v>5923</v>
+      </c>
+      <c r="D3106" t="s">
         <v>5924</v>
-      </c>
-      <c r="D3106" t="s">
-        <v>5925</v>
       </c>
       <c r="E3106" t="s">
         <v>8</v>
@@ -71590,10 +71026,10 @@
         <v>5</v>
       </c>
       <c r="C3107" t="s">
+        <v>5925</v>
+      </c>
+      <c r="D3107" t="s">
         <v>5926</v>
-      </c>
-      <c r="D3107" t="s">
-        <v>5927</v>
       </c>
       <c r="E3107" t="s">
         <v>8</v>
@@ -71607,10 +71043,10 @@
         <v>5</v>
       </c>
       <c r="C3108" t="s">
+        <v>5927</v>
+      </c>
+      <c r="D3108" t="s">
         <v>5928</v>
-      </c>
-      <c r="D3108" t="s">
-        <v>5929</v>
       </c>
       <c r="E3108" t="s">
         <v>8</v>
@@ -71623,11 +71059,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>5930</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>1293</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71640,11 +71076,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>5929</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>5930</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71695,7 +71131,7 @@
         <v>5935</v>
       </c>
       <c r="D3113" t="s">
-        <v>745</v>
+        <v>5936</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -71709,10 +71145,10 @@
         <v>5</v>
       </c>
       <c r="C3114" t="s">
-        <v>5936</v>
+        <v>5937</v>
       </c>
       <c r="D3114" t="s">
-        <v>5937</v>
+        <v>3885</v>
       </c>
       <c r="E3114" t="s">
         <v>8</v>
@@ -71800,1672 +71236,6 @@
         <v>5947</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>5948</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>5949</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>5950</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>5951</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>5952</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>5953</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>5954</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>5955</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>5956</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>5957</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>5958</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>5959</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>5960</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>3885</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>5961</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>5962</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>5963</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>5964</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>5965</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>5966</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>5967</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>5968</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>5969</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>5970</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>5971</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>5972</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>5973</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>5974</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>5975</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>5976</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>5977</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>5978</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>5979</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>5980</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>5981</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>5982</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>5983</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>5984</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>5985</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>5986</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>5987</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>5988</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>5989</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>5990</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>5991</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>5992</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>5993</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>5994</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>5995</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>5996</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>5997</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>5998</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>5999</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>6000</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>6001</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>6002</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>6003</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>621</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>6004</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>6005</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>6006</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>6007</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>6008</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6009</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6010</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6011</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6012</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6013</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6014</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6015</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6016</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6017</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6018</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6019</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6020</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5839</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6021</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6022</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6023</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6024</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6025</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6025</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6026</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6027</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6027</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6026</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6028</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6029</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6030</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6030</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6031</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6032</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6033</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6034</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6035</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6035</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6036</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>6037</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6038</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>6039</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6040</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6041</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6042</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6043</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6044</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6045</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6046</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6047</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6048</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6049</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6050</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>6051</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6052</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6053</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6054</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6055</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6056</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6057</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6058</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6059</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6060</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6061</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6062</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6063</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6064</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6065</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6066</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>1815</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6067</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6068</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6069</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6070</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6071</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6072</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6073</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6074</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6075</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6076</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6077</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6078</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6079</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6080</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6081</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6082</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6083</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6084</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6085</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6086</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6087</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6088</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6089</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6090</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6091</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6092</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6093</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6094</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6095</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6096</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6097</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6098</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6099</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6100</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6101</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6102</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6103</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6104</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6105</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6106</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6107</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6108</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6109</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>6110</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6111</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6112</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6113</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6114</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6115</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6116</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6117</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6118</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6119</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6120</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6121</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>6122</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6123</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6124</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6125</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6110</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6126</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>2921</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6127</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>2234</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6128</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6129</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6130</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6131</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6132</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6133</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6134</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6135</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
